--- a/queryGenerators/FlatConnect_queries/bioSurvey_v1/development/bioSurvey_v1-schema.xlsx
+++ b/queryGenerators/FlatConnect_queries/bioSurvey_v1/development/bioSurvey_v1-schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/dataFlattening/flatteningRequests/queryGenerators/FlatConnect_queries/bioSurvey_v1/development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFFCEF07-6201-174B-A1B8-12B50E81EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1449B2-B561-F743-983A-1D9B6F0A0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34440" yWindow="500" windowWidth="28040" windowHeight="17240" xr2:uid="{2EC187AD-307F-1D4F-A046-A50E6B731C73}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{972CEE9A-259A-1349-B989-F92824B532C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="597">
   <si>
     <t>fullname</t>
   </si>
@@ -50,394 +50,430 @@
     <t>description</t>
   </si>
   <si>
+    <t>D_792134396</t>
+  </si>
+  <si>
+    <t>NULLABLE</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>D_736393021</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1</t>
+  </si>
+  <si>
+    <t>RECORD</t>
+  </si>
+  <si>
+    <t>D_498984275</t>
+  </si>
+  <si>
+    <t>D_800703566</t>
+  </si>
+  <si>
+    <t>D_899251483</t>
+  </si>
+  <si>
+    <t>REPEATED</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3</t>
+  </si>
+  <si>
+    <t>D_522008539</t>
+  </si>
+  <si>
+    <t>treeJSON</t>
+  </si>
+  <si>
+    <t>D_110872086</t>
+  </si>
+  <si>
+    <t>D_736028153</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1</t>
+  </si>
+  <si>
+    <t>D_890156588</t>
+  </si>
+  <si>
+    <t>D_366980310_1_1</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1</t>
+  </si>
+  <si>
+    <t>D_299417266</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3</t>
+  </si>
+  <si>
+    <t>Connect_ID</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>D_470484596</t>
+  </si>
+  <si>
+    <t>D_494226443</t>
+  </si>
+  <si>
+    <t>D_689861450</t>
+  </si>
+  <si>
+    <t>D_389465772_1_1</t>
+  </si>
+  <si>
+    <t>D_108733102_1_1</t>
+  </si>
+  <si>
+    <t>D_860011428</t>
+  </si>
+  <si>
+    <t>D_498462481_1_1</t>
+  </si>
+  <si>
+    <t>D_928530823_1_1</t>
+  </si>
+  <si>
+    <t>D_877074400</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1</t>
+  </si>
+  <si>
+    <t>D_694503437_1_1</t>
+  </si>
+  <si>
+    <t>D_775313030_1_1</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2</t>
+  </si>
+  <si>
     <t>uid</t>
   </si>
   <si>
-    <t>NULLABLE</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>Connect_ID</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>D_522008539</t>
-  </si>
-  <si>
-    <t>D_470484596</t>
-  </si>
-  <si>
-    <t>REPEATED</t>
+    <t>D_487532606</t>
+  </si>
+  <si>
+    <t>D_877878167</t>
+  </si>
+  <si>
+    <t>D_350251057</t>
+  </si>
+  <si>
+    <t>D_451163824_1_1</t>
+  </si>
+  <si>
+    <t>D_114280729</t>
+  </si>
+  <si>
+    <t>D_542661394</t>
+  </si>
+  <si>
+    <t>D_847578001</t>
+  </si>
+  <si>
+    <t>D_983043203</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2</t>
   </si>
   <si>
     <t>D_867307558</t>
   </si>
   <si>
+    <t>D_751358419</t>
+  </si>
+  <si>
+    <t>D_294886836</t>
+  </si>
+  <si>
+    <t>D_191057574</t>
+  </si>
+  <si>
+    <t>D_642044281</t>
+  </si>
+  <si>
+    <t>D_339570897</t>
+  </si>
+  <si>
+    <t>D_479143504</t>
+  </si>
+  <si>
+    <t>D_136730307</t>
+  </si>
+  <si>
+    <t>D_406270109</t>
+  </si>
+  <si>
+    <t>D_349659426</t>
+  </si>
+  <si>
+    <t>D_813989715</t>
+  </si>
+  <si>
+    <t>D_857165713</t>
+  </si>
+  <si>
+    <t>D_766370065</t>
+  </si>
+  <si>
+    <t>D_424718457</t>
+  </si>
+  <si>
+    <t>D_775313030_2_2</t>
+  </si>
+  <si>
+    <t>D_694503437_2_2</t>
+  </si>
+  <si>
+    <t>D_980800222_2_2</t>
+  </si>
+  <si>
+    <t>D_875535246</t>
+  </si>
+  <si>
+    <t>D_451163824_2_2</t>
+  </si>
+  <si>
+    <t>D_877074400_V2</t>
+  </si>
+  <si>
+    <t>D_890156588_V2</t>
+  </si>
+  <si>
+    <t>D_899251483_V2</t>
+  </si>
+  <si>
+    <t>D_130311122</t>
+  </si>
+  <si>
+    <t>D_689861450_V2</t>
+  </si>
+  <si>
+    <t>D_299417266_V2</t>
+  </si>
+  <si>
+    <t>D_563539159</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_2_2</t>
+  </si>
+  <si>
+    <t>D_234714655</t>
+  </si>
+  <si>
+    <t>D_353467497</t>
+  </si>
+  <si>
+    <t>D_518916981</t>
+  </si>
+  <si>
+    <t>D_644459734</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2</t>
+  </si>
+  <si>
+    <t>D_108733102_2_2</t>
+  </si>
+  <si>
+    <t>D_380603392</t>
+  </si>
+  <si>
     <t>D_191057574_V2</t>
   </si>
   <si>
-    <t>D_299417266_V2</t>
-  </si>
-  <si>
-    <t>D_689861450_V2</t>
-  </si>
-  <si>
-    <t>D_487532606</t>
-  </si>
-  <si>
-    <t>RECORD</t>
-  </si>
-  <si>
-    <t>D_380603392</t>
+    <t>D_366980310_2_2</t>
+  </si>
+  <si>
+    <t>D_928530823_2_2</t>
+  </si>
+  <si>
+    <t>D_798452445</t>
+  </si>
+  <si>
+    <t>D_389465772_2_2</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_3_3</t>
   </si>
   <si>
     <t>D_112151599</t>
   </si>
   <si>
-    <t>D_644459734</t>
-  </si>
-  <si>
-    <t>D_518916981</t>
-  </si>
-  <si>
-    <t>D_234714655</t>
-  </si>
-  <si>
-    <t>D_798452445</t>
-  </si>
-  <si>
-    <t>D_563539159</t>
-  </si>
-  <si>
-    <t>D_875535246</t>
-  </si>
-  <si>
-    <t>D_130311122</t>
-  </si>
-  <si>
-    <t>D_494226443</t>
-  </si>
-  <si>
-    <t>D_860011428</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1</t>
-  </si>
-  <si>
-    <t>D_366980310_1_1</t>
-  </si>
-  <si>
-    <t>D_694503437_1_1</t>
-  </si>
-  <si>
-    <t>D_451163824_1_1</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1</t>
-  </si>
-  <si>
-    <t>D_928530823_1_1</t>
-  </si>
-  <si>
-    <t>D_108733102_1_1</t>
-  </si>
-  <si>
-    <t>D_389465772_1_1</t>
-  </si>
-  <si>
-    <t>D_775313030_1_1</t>
+    <t>D_715581797_V2_1_1</t>
+  </si>
+  <si>
+    <t>D_205713835</t>
+  </si>
+  <si>
+    <t>D_957305523</t>
+  </si>
+  <si>
+    <t>D_749956170</t>
+  </si>
+  <si>
+    <t>D_368715875</t>
+  </si>
+  <si>
+    <t>D_589004291</t>
+  </si>
+  <si>
+    <t>D_520416570</t>
+  </si>
+  <si>
+    <t>D_220055064_4_4</t>
+  </si>
+  <si>
+    <t>D_921972241</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4</t>
+  </si>
+  <si>
+    <t>D_429994023</t>
+  </si>
+  <si>
+    <t>D_499977481</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_4_4</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_5_5</t>
+  </si>
+  <si>
+    <t>D_220055064_5_5</t>
+  </si>
+  <si>
+    <t>D_460873842</t>
+  </si>
+  <si>
+    <t>D_318641324</t>
+  </si>
+  <si>
+    <t>D_591826144</t>
+  </si>
+  <si>
+    <t>D_273371161</t>
+  </si>
+  <si>
+    <t>D_934384452</t>
+  </si>
+  <si>
+    <t>D_179406442_1_1</t>
+  </si>
+  <si>
+    <t>D_893966847_1_1</t>
+  </si>
+  <si>
+    <t>D_782396371_1_1</t>
+  </si>
+  <si>
+    <t>D_984121390_1_1</t>
+  </si>
+  <si>
+    <t>D_430166879_1_1</t>
   </si>
   <si>
     <t>D_744230001_1_1</t>
   </si>
   <si>
-    <t>D_782396371_1_1</t>
+    <t>D_803339020_1_1</t>
   </si>
   <si>
     <t>D_930944000_1_1</t>
   </si>
   <si>
-    <t>D_984121390_1_1</t>
-  </si>
-  <si>
-    <t>D_430166879_1_1</t>
-  </si>
-  <si>
-    <t>D_179406442_1_1</t>
-  </si>
-  <si>
-    <t>D_803339020_1_1</t>
-  </si>
-  <si>
-    <t>D_893966847_1_1</t>
-  </si>
-  <si>
-    <t>D_169509213_1_1</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2</t>
-  </si>
-  <si>
-    <t>D_366980310_2_2</t>
+    <t>D_724589244</t>
+  </si>
+  <si>
+    <t>D_526973271</t>
+  </si>
+  <si>
+    <t>D_800752981</t>
+  </si>
+  <si>
+    <t>D_360678252</t>
+  </si>
+  <si>
+    <t>D_430060900</t>
+  </si>
+  <si>
+    <t>D_959877599</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3</t>
+  </si>
+  <si>
+    <t>D_108733102_3_3</t>
+  </si>
+  <si>
+    <t>D_389465772_3_3</t>
+  </si>
+  <si>
+    <t>D_366980310_3_3</t>
+  </si>
+  <si>
+    <t>D_928530823_3_3</t>
+  </si>
+  <si>
+    <t>D_498462481_3_3</t>
+  </si>
+  <si>
+    <t>D_694503437_3_3</t>
+  </si>
+  <si>
+    <t>D_775313030_3_3</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3</t>
+  </si>
+  <si>
+    <t>D_451163824_3_3</t>
   </si>
   <si>
     <t>D_498462481_2_2</t>
   </si>
   <si>
-    <t>D_694503437_2_2</t>
-  </si>
-  <si>
-    <t>D_847578001</t>
-  </si>
-  <si>
-    <t>D_136730307</t>
-  </si>
-  <si>
-    <t>D_751358419</t>
-  </si>
-  <si>
-    <t>D_110872086</t>
-  </si>
-  <si>
-    <t>D_114280729</t>
-  </si>
-  <si>
-    <t>D_890156588_V2</t>
-  </si>
-  <si>
-    <t>D_877074400_V2</t>
-  </si>
-  <si>
-    <t>D_715581797_V2_1_1</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1</t>
-  </si>
-  <si>
-    <t>D_715581797_V2_2_2</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2</t>
-  </si>
-  <si>
-    <t>D_715581797_V2_3_3</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3</t>
-  </si>
-  <si>
-    <t>D_715581797_V2_4_4</t>
-  </si>
-  <si>
-    <t>D_220055064_4_4</t>
-  </si>
-  <si>
-    <t>D_350251057</t>
-  </si>
-  <si>
-    <t>D_877878167</t>
-  </si>
-  <si>
-    <t>D_800703566</t>
-  </si>
-  <si>
-    <t>D_294886836</t>
-  </si>
-  <si>
-    <t>D_642044281</t>
-  </si>
-  <si>
-    <t>D_479143504</t>
-  </si>
-  <si>
-    <t>D_498984275</t>
-  </si>
-  <si>
-    <t>D_205713835</t>
-  </si>
-  <si>
-    <t>D_353467497</t>
-  </si>
-  <si>
-    <t>D_429994023</t>
-  </si>
-  <si>
-    <t>D_499977481</t>
-  </si>
-  <si>
-    <t>D_406270109</t>
-  </si>
-  <si>
-    <t>D_349659426</t>
-  </si>
-  <si>
-    <t>D_766370065</t>
-  </si>
-  <si>
-    <t>D_520416570</t>
-  </si>
-  <si>
-    <t>D_921972241</t>
-  </si>
-  <si>
-    <t>D_526973271</t>
-  </si>
-  <si>
-    <t>D_460873842</t>
-  </si>
-  <si>
-    <t>D_430060900</t>
-  </si>
-  <si>
-    <t>D_800752981</t>
-  </si>
-  <si>
-    <t>D_899251483_V2</t>
-  </si>
-  <si>
-    <t>D_724589244</t>
-  </si>
-  <si>
-    <t>D_957305523</t>
-  </si>
-  <si>
-    <t>D_360678252</t>
-  </si>
-  <si>
-    <t>D_542661394</t>
-  </si>
-  <si>
-    <t>D_339570897</t>
-  </si>
-  <si>
-    <t>D_983043203</t>
-  </si>
-  <si>
-    <t>D_736028153</t>
-  </si>
-  <si>
-    <t>D_792134396</t>
-  </si>
-  <si>
-    <t>D_736393021</t>
-  </si>
-  <si>
-    <t>D_318641324</t>
-  </si>
-  <si>
-    <t>treeJSON</t>
-  </si>
-  <si>
-    <t>D_775313030_2_2</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10</t>
-  </si>
-  <si>
-    <t>D_899251483</t>
-  </si>
-  <si>
-    <t>D_715581797_10_10</t>
-  </si>
-  <si>
-    <t>D_451163824_2_2</t>
-  </si>
-  <si>
-    <t>D_220055064_5_5</t>
-  </si>
-  <si>
-    <t>D_890156588</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1</t>
-  </si>
-  <si>
-    <t>D_299417266</t>
-  </si>
-  <si>
-    <t>D_715581797_3_3</t>
-  </si>
-  <si>
     <t>D_220055064_6_6</t>
   </si>
   <si>
-    <t>D_689861450</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8</t>
-  </si>
-  <si>
-    <t>D_934384452</t>
-  </si>
-  <si>
-    <t>D_715581797_9_9</t>
-  </si>
-  <si>
-    <t>D_715581797_5_5</t>
-  </si>
-  <si>
-    <t>D_877074400</t>
-  </si>
-  <si>
-    <t>D_715581797_7_7</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2</t>
-  </si>
-  <si>
-    <t>D_108733102_2_2</t>
-  </si>
-  <si>
-    <t>D_591826144</t>
-  </si>
-  <si>
-    <t>D_273371161</t>
-  </si>
-  <si>
-    <t>D_928530823_2_2</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9</t>
-  </si>
-  <si>
-    <t>D_389465772_2_2</t>
-  </si>
-  <si>
-    <t>D_715581797_8_8</t>
-  </si>
-  <si>
-    <t>D_191057574</t>
-  </si>
-  <si>
-    <t>D_715581797_4_4</t>
-  </si>
-  <si>
-    <t>D_715581797_6_6</t>
-  </si>
-  <si>
-    <t>D_498462481_1_1</t>
-  </si>
-  <si>
-    <t>D_813989715</t>
-  </si>
-  <si>
-    <t>D_857165713</t>
-  </si>
-  <si>
-    <t>D_424718457</t>
-  </si>
-  <si>
-    <t>D_749956170</t>
+    <t>D_744230001_2_2</t>
+  </si>
+  <si>
+    <t>D_930944000_2_2</t>
+  </si>
+  <si>
+    <t>D_179406442_2_2</t>
+  </si>
+  <si>
+    <t>D_782396371_2_2</t>
+  </si>
+  <si>
+    <t>D_893966847_2_2</t>
+  </si>
+  <si>
+    <t>D_984121390_2_2</t>
+  </si>
+  <si>
+    <t>D_803339020_2_2</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_6_6</t>
   </si>
   <si>
     <t>__key__</t>
@@ -452,6 +488,321 @@
     <t>BOOLEAN</t>
   </si>
   <si>
+    <t>D_705336878_1_1.D_705336878_1_1</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.D_218852075_1_1</t>
+  </si>
+  <si>
+    <t>D_218852075_1_1</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.D_218852075_1</t>
+  </si>
+  <si>
+    <t>D_218852075_1</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.__key__</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.__key__.app</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.__key__.path</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.__key__.name</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.__key__.id</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.D_220055064_3_3</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.D_395747093_3_3</t>
+  </si>
+  <si>
+    <t>D_395747093_3_3</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.__key__</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.__key__.app</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.__key__.path</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.__key__.name</t>
+  </si>
+  <si>
+    <t>D_220055064_3_3.__key__.id</t>
+  </si>
+  <si>
+    <t>D_110872086.D_110872086</t>
+  </si>
+  <si>
+    <t>D_110872086.D_637540387</t>
+  </si>
+  <si>
+    <t>D_637540387</t>
+  </si>
+  <si>
+    <t>D_110872086.__key__</t>
+  </si>
+  <si>
+    <t>D_110872086.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_110872086.__key__.app</t>
+  </si>
+  <si>
+    <t>D_110872086.__key__.path</t>
+  </si>
+  <si>
+    <t>D_110872086.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_110872086.__key__.name</t>
+  </si>
+  <si>
+    <t>D_110872086.__key__.id</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.D_220055064_1_1</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.D_395747093_1_1</t>
+  </si>
+  <si>
+    <t>D_395747093_1_1</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.__key__</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.__key__.app</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.__key__.path</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.__key__.name</t>
+  </si>
+  <si>
+    <t>D_220055064_1_1.__key__.id</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.D_652923023_1</t>
+  </si>
+  <si>
+    <t>D_652923023_1</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.D_701387353_1</t>
+  </si>
+  <si>
+    <t>D_701387353_1</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.D_652923023_1_1</t>
+  </si>
+  <si>
+    <t>D_652923023_1_1</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.D_701387353_1_1</t>
+  </si>
+  <si>
+    <t>D_701387353_1_1</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.__key__</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.__key__.app</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.__key__.path</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.__key__.name</t>
+  </si>
+  <si>
+    <t>D_715581797_1_1.__key__.id</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.D_652923023_3</t>
+  </si>
+  <si>
+    <t>D_652923023_3</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.D_701387353_3</t>
+  </si>
+  <si>
+    <t>D_701387353_3</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.D_652923023_3_3</t>
+  </si>
+  <si>
+    <t>D_652923023_3_3</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.D_701387353_3_3</t>
+  </si>
+  <si>
+    <t>D_701387353_3_3</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.__key__</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.__key__.app</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.__key__.path</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.__key__.name</t>
+  </si>
+  <si>
+    <t>D_715581797_3_3.__key__.id</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_173502329_1u25_20required</t>
+  </si>
+  <si>
+    <t>D_173502329_1%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_366972678_1u25_20required</t>
+  </si>
+  <si>
+    <t>D_366972678_1%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_366972678_1_1</t>
+  </si>
+  <si>
+    <t>D_366972678_1_1</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_173502329_1_1</t>
+  </si>
+  <si>
+    <t>D_173502329_1_1</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_173502329_1_1u25_20required</t>
+  </si>
+  <si>
+    <t>D_173502329_1_1%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_366972678_1_1u25_20required</t>
+  </si>
+  <si>
+    <t>D_366972678_1_1%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_366972678_1</t>
+  </si>
+  <si>
+    <t>D_366972678_1</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.D_173502329_1</t>
+  </si>
+  <si>
+    <t>D_173502329_1</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.__key__</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.__key__.app</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.__key__.path</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.__key__.name</t>
+  </si>
+  <si>
+    <t>D_980800222_1_1.__key__.id</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.D_220055064_2_2</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.D_395747093_2_2</t>
+  </si>
+  <si>
+    <t>D_395747093_2_2</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.__key__</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.__key__.app</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.__key__.path</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.__key__.name</t>
+  </si>
+  <si>
+    <t>D_220055064_2_2.__key__.id</t>
+  </si>
+  <si>
     <t>D_487532606.D_839329467</t>
   </si>
   <si>
@@ -491,73 +842,475 @@
     <t>D_487532606.__key__.id</t>
   </si>
   <si>
-    <t>D_980800222_1_1.D_366972678_1_1</t>
-  </si>
-  <si>
-    <t>D_366972678_1_1</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.D_173502329_1_1</t>
-  </si>
-  <si>
-    <t>D_173502329_1_1</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.D_366972678_1</t>
-  </si>
-  <si>
-    <t>D_366972678_1</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.D_173502329_1</t>
-  </si>
-  <si>
-    <t>D_173502329_1</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.__key__</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.__key__.app</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.__key__.path</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.__key__.name</t>
-  </si>
-  <si>
-    <t>D_980800222_1_1.__key__.id</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.D_705336878_1_1</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.__key__</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.__key__.app</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.__key__.path</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.__key__.name</t>
-  </si>
-  <si>
-    <t>D_705336878_1_1.__key__.id</t>
+    <t>D_114280729.D_966214244</t>
+  </si>
+  <si>
+    <t>D_966214244</t>
+  </si>
+  <si>
+    <t>D_114280729.D_590361055</t>
+  </si>
+  <si>
+    <t>D_590361055</t>
+  </si>
+  <si>
+    <t>D_114280729.D_481587023</t>
+  </si>
+  <si>
+    <t>D_481587023</t>
+  </si>
+  <si>
+    <t>D_114280729.D_108389123</t>
+  </si>
+  <si>
+    <t>D_108389123</t>
+  </si>
+  <si>
+    <t>D_114280729.D_790860504</t>
+  </si>
+  <si>
+    <t>D_790860504</t>
+  </si>
+  <si>
+    <t>D_114280729.D_986119909</t>
+  </si>
+  <si>
+    <t>D_986119909</t>
+  </si>
+  <si>
+    <t>D_114280729.D_374567479</t>
+  </si>
+  <si>
+    <t>D_374567479</t>
+  </si>
+  <si>
+    <t>D_114280729.D_994153376</t>
+  </si>
+  <si>
+    <t>D_994153376</t>
+  </si>
+  <si>
+    <t>D_114280729.D_747085418</t>
+  </si>
+  <si>
+    <t>D_747085418</t>
+  </si>
+  <si>
+    <t>D_114280729.D_368669706</t>
+  </si>
+  <si>
+    <t>D_368669706</t>
+  </si>
+  <si>
+    <t>D_114280729.D_336856410</t>
+  </si>
+  <si>
+    <t>D_336856410</t>
+  </si>
+  <si>
+    <t>D_114280729.D_770190369</t>
+  </si>
+  <si>
+    <t>D_770190369</t>
+  </si>
+  <si>
+    <t>D_114280729.D_702905707</t>
+  </si>
+  <si>
+    <t>D_702905707</t>
+  </si>
+  <si>
+    <t>D_114280729.D_109223043</t>
+  </si>
+  <si>
+    <t>D_109223043</t>
+  </si>
+  <si>
+    <t>D_114280729.D_518602598</t>
+  </si>
+  <si>
+    <t>D_518602598</t>
+  </si>
+  <si>
+    <t>D_114280729.D_605818246</t>
+  </si>
+  <si>
+    <t>D_605818246</t>
+  </si>
+  <si>
+    <t>D_114280729.__key__</t>
+  </si>
+  <si>
+    <t>D_114280729.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_114280729.__key__.app</t>
+  </si>
+  <si>
+    <t>D_114280729.__key__.path</t>
+  </si>
+  <si>
+    <t>D_114280729.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_114280729.__key__.name</t>
+  </si>
+  <si>
+    <t>D_114280729.__key__.id</t>
+  </si>
+  <si>
+    <t>D_847578001.D_167695804</t>
+  </si>
+  <si>
+    <t>D_167695804</t>
+  </si>
+  <si>
+    <t>D_847578001.D_215996690</t>
+  </si>
+  <si>
+    <t>D_215996690</t>
+  </si>
+  <si>
+    <t>D_847578001.D_462737492</t>
+  </si>
+  <si>
+    <t>D_462737492</t>
+  </si>
+  <si>
+    <t>D_847578001.D_469675296</t>
+  </si>
+  <si>
+    <t>D_469675296</t>
+  </si>
+  <si>
+    <t>D_847578001.D_488415137</t>
+  </si>
+  <si>
+    <t>D_488415137</t>
+  </si>
+  <si>
+    <t>D_847578001.D_730334054</t>
+  </si>
+  <si>
+    <t>D_730334054</t>
+  </si>
+  <si>
+    <t>D_847578001.__key__</t>
+  </si>
+  <si>
+    <t>D_847578001.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_847578001.__key__.app</t>
+  </si>
+  <si>
+    <t>D_847578001.__key__.path</t>
+  </si>
+  <si>
+    <t>D_847578001.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_847578001.__key__.name</t>
+  </si>
+  <si>
+    <t>D_847578001.__key__.id</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.D_652923023_2</t>
+  </si>
+  <si>
+    <t>D_652923023_2</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.D_701387353_2</t>
+  </si>
+  <si>
+    <t>D_701387353_2</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.D_652923023_2_2</t>
+  </si>
+  <si>
+    <t>D_652923023_2_2</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.D_701387353_2_2</t>
+  </si>
+  <si>
+    <t>D_701387353_2_2</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.__key__</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.__key__.app</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.__key__.path</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.__key__.name</t>
+  </si>
+  <si>
+    <t>D_715581797_2_2.__key__.id</t>
+  </si>
+  <si>
+    <t>D_751358419.D_238135048</t>
+  </si>
+  <si>
+    <t>D_238135048</t>
+  </si>
+  <si>
+    <t>D_751358419.D_524096053</t>
+  </si>
+  <si>
+    <t>D_524096053</t>
+  </si>
+  <si>
+    <t>D_751358419.D_635026188</t>
+  </si>
+  <si>
+    <t>D_635026188</t>
+  </si>
+  <si>
+    <t>D_751358419.D_814101706</t>
+  </si>
+  <si>
+    <t>D_814101706</t>
+  </si>
+  <si>
+    <t>D_751358419.D_632714520</t>
+  </si>
+  <si>
+    <t>D_632714520</t>
+  </si>
+  <si>
+    <t>D_751358419.__key__</t>
+  </si>
+  <si>
+    <t>D_751358419.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_751358419.__key__.app</t>
+  </si>
+  <si>
+    <t>D_751358419.__key__.path</t>
+  </si>
+  <si>
+    <t>D_751358419.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_751358419.__key__.name</t>
+  </si>
+  <si>
+    <t>D_751358419.__key__.id</t>
+  </si>
+  <si>
+    <t>D_136730307.D_989576239</t>
+  </si>
+  <si>
+    <t>D_989576239</t>
+  </si>
+  <si>
+    <t>D_136730307.D_126794793</t>
+  </si>
+  <si>
+    <t>D_126794793</t>
+  </si>
+  <si>
+    <t>D_136730307.D_338613869</t>
+  </si>
+  <si>
+    <t>D_338613869</t>
+  </si>
+  <si>
+    <t>D_136730307.D_218793117</t>
+  </si>
+  <si>
+    <t>D_218793117</t>
+  </si>
+  <si>
+    <t>D_136730307.D_962475128</t>
+  </si>
+  <si>
+    <t>D_962475128</t>
+  </si>
+  <si>
+    <t>D_136730307.__key__</t>
+  </si>
+  <si>
+    <t>D_136730307.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_136730307.__key__.app</t>
+  </si>
+  <si>
+    <t>D_136730307.__key__.path</t>
+  </si>
+  <si>
+    <t>D_136730307.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_136730307.__key__.name</t>
+  </si>
+  <si>
+    <t>D_136730307.__key__.id</t>
+  </si>
+  <si>
+    <t>D_813989715.D_874223830</t>
+  </si>
+  <si>
+    <t>D_874223830</t>
+  </si>
+  <si>
+    <t>D_813989715.D_580629349</t>
+  </si>
+  <si>
+    <t>D_580629349</t>
+  </si>
+  <si>
+    <t>D_813989715.D_151327643</t>
+  </si>
+  <si>
+    <t>D_151327643</t>
+  </si>
+  <si>
+    <t>D_813989715.D_874168085</t>
+  </si>
+  <si>
+    <t>D_874168085</t>
+  </si>
+  <si>
+    <t>D_813989715.D_283112988</t>
+  </si>
+  <si>
+    <t>D_283112988</t>
+  </si>
+  <si>
+    <t>D_813989715.D_440872808</t>
+  </si>
+  <si>
+    <t>D_440872808</t>
+  </si>
+  <si>
+    <t>D_813989715.__key__</t>
+  </si>
+  <si>
+    <t>D_813989715.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_813989715.__key__.app</t>
+  </si>
+  <si>
+    <t>D_813989715.__key__.path</t>
+  </si>
+  <si>
+    <t>D_813989715.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_813989715.__key__.name</t>
+  </si>
+  <si>
+    <t>D_813989715.__key__.id</t>
+  </si>
+  <si>
+    <t>D_857165713.D_638380747</t>
+  </si>
+  <si>
+    <t>D_638380747</t>
+  </si>
+  <si>
+    <t>D_857165713.D_847529903</t>
+  </si>
+  <si>
+    <t>D_847529903</t>
+  </si>
+  <si>
+    <t>D_857165713.D_219358831</t>
+  </si>
+  <si>
+    <t>D_219358831</t>
+  </si>
+  <si>
+    <t>D_857165713.D_636367178</t>
+  </si>
+  <si>
+    <t>D_636367178</t>
+  </si>
+  <si>
+    <t>D_857165713.D_243443780</t>
+  </si>
+  <si>
+    <t>D_243443780</t>
+  </si>
+  <si>
+    <t>D_857165713.D_187399900</t>
+  </si>
+  <si>
+    <t>D_187399900</t>
+  </si>
+  <si>
+    <t>D_857165713.D_357462273</t>
+  </si>
+  <si>
+    <t>D_357462273</t>
+  </si>
+  <si>
+    <t>D_857165713.__key__</t>
+  </si>
+  <si>
+    <t>D_857165713.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_857165713.__key__.app</t>
+  </si>
+  <si>
+    <t>D_857165713.__key__.path</t>
+  </si>
+  <si>
+    <t>D_857165713.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_857165713.__key__.name</t>
+  </si>
+  <si>
+    <t>D_857165713.__key__.id</t>
+  </si>
+  <si>
+    <t>D_424718457.D_424718457</t>
+  </si>
+  <si>
+    <t>D_424718457.D_157417942</t>
+  </si>
+  <si>
+    <t>D_157417942</t>
+  </si>
+  <si>
+    <t>D_424718457.__key__</t>
+  </si>
+  <si>
+    <t>D_424718457.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_424718457.__key__.app</t>
+  </si>
+  <si>
+    <t>D_424718457.__key__.path</t>
+  </si>
+  <si>
+    <t>D_424718457.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_424718457.__key__.name</t>
+  </si>
+  <si>
+    <t>D_424718457.__key__.id</t>
   </si>
   <si>
     <t>D_980800222_2_2.D_366972678_2_2</t>
@@ -572,6 +1325,30 @@
     <t>D_173502329_2_2</t>
   </si>
   <si>
+    <t>D_980800222_2_2.D_173502329_2u25_20required</t>
+  </si>
+  <si>
+    <t>D_173502329_2%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_2_2.D_366972678_2u25_20required</t>
+  </si>
+  <si>
+    <t>D_366972678_2%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_2_2.D_366972678_2_2u25_20required</t>
+  </si>
+  <si>
+    <t>D_366972678_2_2%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_2_2.D_173502329_2_2u25_20required</t>
+  </si>
+  <si>
+    <t>D_173502329_2_2%20required</t>
+  </si>
+  <si>
     <t>D_980800222_2_2.D_173502329_2</t>
   </si>
   <si>
@@ -605,387 +1382,150 @@
     <t>D_980800222_2_2.__key__.id</t>
   </si>
   <si>
-    <t>D_847578001.D_167695804</t>
-  </si>
-  <si>
-    <t>D_167695804</t>
-  </si>
-  <si>
-    <t>D_847578001.D_215996690</t>
-  </si>
-  <si>
-    <t>D_215996690</t>
-  </si>
-  <si>
-    <t>D_847578001.D_462737492</t>
-  </si>
-  <si>
-    <t>D_462737492</t>
-  </si>
-  <si>
-    <t>D_847578001.D_469675296</t>
-  </si>
-  <si>
-    <t>D_469675296</t>
-  </si>
-  <si>
-    <t>D_847578001.D_488415137</t>
-  </si>
-  <si>
-    <t>D_488415137</t>
-  </si>
-  <si>
-    <t>D_847578001.D_730334054</t>
-  </si>
-  <si>
-    <t>D_730334054</t>
-  </si>
-  <si>
-    <t>D_847578001.__key__</t>
-  </si>
-  <si>
-    <t>D_847578001.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_847578001.__key__.app</t>
-  </si>
-  <si>
-    <t>D_847578001.__key__.path</t>
-  </si>
-  <si>
-    <t>D_847578001.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_847578001.__key__.name</t>
-  </si>
-  <si>
-    <t>D_847578001.__key__.id</t>
-  </si>
-  <si>
-    <t>D_136730307.D_989576239</t>
-  </si>
-  <si>
-    <t>D_989576239</t>
-  </si>
-  <si>
-    <t>D_136730307.D_126794793</t>
-  </si>
-  <si>
-    <t>D_126794793</t>
-  </si>
-  <si>
-    <t>D_136730307.D_338613869</t>
-  </si>
-  <si>
-    <t>D_338613869</t>
-  </si>
-  <si>
-    <t>D_136730307.D_218793117</t>
-  </si>
-  <si>
-    <t>D_218793117</t>
-  </si>
-  <si>
-    <t>D_136730307.D_962475128</t>
-  </si>
-  <si>
-    <t>D_962475128</t>
-  </si>
-  <si>
-    <t>D_136730307.__key__</t>
-  </si>
-  <si>
-    <t>D_136730307.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_136730307.__key__.app</t>
-  </si>
-  <si>
-    <t>D_136730307.__key__.path</t>
-  </si>
-  <si>
-    <t>D_136730307.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_136730307.__key__.name</t>
-  </si>
-  <si>
-    <t>D_136730307.__key__.id</t>
-  </si>
-  <si>
-    <t>D_751358419.D_238135048</t>
-  </si>
-  <si>
-    <t>D_238135048</t>
-  </si>
-  <si>
-    <t>D_751358419.D_524096053</t>
-  </si>
-  <si>
-    <t>D_524096053</t>
-  </si>
-  <si>
-    <t>D_751358419.D_635026188</t>
-  </si>
-  <si>
-    <t>D_635026188</t>
-  </si>
-  <si>
-    <t>D_751358419.D_814101706</t>
-  </si>
-  <si>
-    <t>D_814101706</t>
-  </si>
-  <si>
-    <t>D_751358419.D_632714520</t>
-  </si>
-  <si>
-    <t>D_632714520</t>
-  </si>
-  <si>
-    <t>D_751358419.__key__</t>
-  </si>
-  <si>
-    <t>D_751358419.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_751358419.__key__.app</t>
-  </si>
-  <si>
-    <t>D_751358419.__key__.path</t>
-  </si>
-  <si>
-    <t>D_751358419.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_751358419.__key__.name</t>
-  </si>
-  <si>
-    <t>D_751358419.__key__.id</t>
-  </si>
-  <si>
-    <t>D_110872086.D_110872086</t>
-  </si>
-  <si>
-    <t>D_110872086.D_637540387</t>
-  </si>
-  <si>
-    <t>D_637540387</t>
-  </si>
-  <si>
-    <t>D_110872086.__key__</t>
-  </si>
-  <si>
-    <t>D_110872086.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_110872086.__key__.app</t>
-  </si>
-  <si>
-    <t>D_110872086.__key__.path</t>
-  </si>
-  <si>
-    <t>D_110872086.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_110872086.__key__.name</t>
-  </si>
-  <si>
-    <t>D_110872086.__key__.id</t>
-  </si>
-  <si>
-    <t>D_114280729.D_966214244</t>
-  </si>
-  <si>
-    <t>D_966214244</t>
-  </si>
-  <si>
-    <t>D_114280729.D_747085418</t>
-  </si>
-  <si>
-    <t>D_747085418</t>
-  </si>
-  <si>
-    <t>D_114280729.D_368669706</t>
-  </si>
-  <si>
-    <t>D_368669706</t>
-  </si>
-  <si>
-    <t>D_114280729.D_481587023</t>
-  </si>
-  <si>
-    <t>D_481587023</t>
-  </si>
-  <si>
-    <t>D_114280729.D_336856410</t>
-  </si>
-  <si>
-    <t>D_336856410</t>
-  </si>
-  <si>
-    <t>D_114280729.D_994153376</t>
-  </si>
-  <si>
-    <t>D_994153376</t>
-  </si>
-  <si>
-    <t>D_114280729.D_108389123</t>
-  </si>
-  <si>
-    <t>D_108389123</t>
-  </si>
-  <si>
-    <t>D_114280729.D_605818246</t>
-  </si>
-  <si>
-    <t>D_605818246</t>
-  </si>
-  <si>
-    <t>D_114280729.D_702905707</t>
-  </si>
-  <si>
-    <t>D_702905707</t>
-  </si>
-  <si>
-    <t>D_114280729.D_790860504</t>
-  </si>
-  <si>
-    <t>D_790860504</t>
-  </si>
-  <si>
-    <t>D_114280729.D_986119909</t>
-  </si>
-  <si>
-    <t>D_986119909</t>
-  </si>
-  <si>
-    <t>D_114280729.D_109223043</t>
-  </si>
-  <si>
-    <t>D_109223043</t>
-  </si>
-  <si>
-    <t>D_114280729.D_590361055</t>
-  </si>
-  <si>
-    <t>D_590361055</t>
-  </si>
-  <si>
-    <t>D_114280729.D_518602598</t>
-  </si>
-  <si>
-    <t>D_518602598</t>
-  </si>
-  <si>
-    <t>D_114280729.D_374567479</t>
-  </si>
-  <si>
-    <t>D_374567479</t>
-  </si>
-  <si>
-    <t>D_114280729.D_770190369</t>
-  </si>
-  <si>
-    <t>D_770190369</t>
-  </si>
-  <si>
-    <t>D_114280729.__key__</t>
-  </si>
-  <si>
-    <t>D_114280729.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_114280729.__key__.app</t>
-  </si>
-  <si>
-    <t>D_114280729.__key__.path</t>
-  </si>
-  <si>
-    <t>D_114280729.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_114280729.__key__.name</t>
-  </si>
-  <si>
-    <t>D_114280729.__key__.id</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.D_220055064_1_1</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_1_1.__key__.id</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.D_220055064_2_2</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_2_2.__key__.id</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.D_220055064_3_3</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_3_3.__key__.id</t>
+    <t>D_705336878_2_2.D_705336878_2_2</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.D_218852075_2_2</t>
+  </si>
+  <si>
+    <t>D_218852075_2_2</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.D_218852075_2</t>
+  </si>
+  <si>
+    <t>D_218852075_2</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.__key__</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.__key__.app</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.__key__.path</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.__key__.name</t>
+  </si>
+  <si>
+    <t>D_705336878_2_2.__key__.id</t>
+  </si>
+  <si>
+    <t>D_749956170.D_304155106</t>
+  </si>
+  <si>
+    <t>D_304155106</t>
+  </si>
+  <si>
+    <t>D_749956170.D_431203595</t>
+  </si>
+  <si>
+    <t>D_431203595</t>
+  </si>
+  <si>
+    <t>D_749956170.D_223008071</t>
+  </si>
+  <si>
+    <t>D_223008071</t>
+  </si>
+  <si>
+    <t>D_749956170.D_599862694</t>
+  </si>
+  <si>
+    <t>D_599862694</t>
+  </si>
+  <si>
+    <t>D_749956170.D_143206081</t>
+  </si>
+  <si>
+    <t>D_143206081</t>
+  </si>
+  <si>
+    <t>D_749956170.D_516899143</t>
+  </si>
+  <si>
+    <t>D_516899143</t>
+  </si>
+  <si>
+    <t>D_749956170.D_463689026</t>
+  </si>
+  <si>
+    <t>D_463689026</t>
+  </si>
+  <si>
+    <t>D_749956170.D_691752394</t>
+  </si>
+  <si>
+    <t>D_691752394</t>
+  </si>
+  <si>
+    <t>D_749956170.D_830581863</t>
+  </si>
+  <si>
+    <t>D_830581863</t>
+  </si>
+  <si>
+    <t>D_749956170.D_860444009</t>
+  </si>
+  <si>
+    <t>D_860444009</t>
+  </si>
+  <si>
+    <t>D_749956170.D_144819886</t>
+  </si>
+  <si>
+    <t>D_144819886</t>
+  </si>
+  <si>
+    <t>D_749956170.D_246857412</t>
+  </si>
+  <si>
+    <t>D_246857412</t>
+  </si>
+  <si>
+    <t>D_749956170.D_527872064</t>
+  </si>
+  <si>
+    <t>D_527872064</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.app</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.path</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.name</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.id</t>
   </si>
   <si>
     <t>D_220055064_4_4.D_220055064_4_4</t>
   </si>
   <si>
+    <t>D_220055064_4_4.D_395747093_4_4</t>
+  </si>
+  <si>
+    <t>D_395747093_4_4</t>
+  </si>
+  <si>
     <t>D_220055064_4_4.__key__</t>
   </si>
   <si>
@@ -1007,28 +1547,49 @@
     <t>D_220055064_4_4.__key__.id</t>
   </si>
   <si>
-    <t>D_220055064_10_10.D_220055064_10_10</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.id</t>
+    <t>D_715581797_4_4.D_652923023_4</t>
+  </si>
+  <si>
+    <t>D_652923023_4</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.D_701387353_4_4</t>
+  </si>
+  <si>
+    <t>D_701387353_4_4</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.D_652923023_4_4</t>
+  </si>
+  <si>
+    <t>D_652923023_4_4</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.D_701387353_4</t>
+  </si>
+  <si>
+    <t>D_701387353_4</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.__key__</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.__key__.app</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.__key__.path</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.__key__.name</t>
+  </si>
+  <si>
+    <t>D_715581797_4_4.__key__.id</t>
   </si>
   <si>
     <t>D_220055064_5_5.D_220055064_5_5</t>
@@ -1061,51 +1622,174 @@
     <t>D_220055064_5_5.__key__.id</t>
   </si>
   <si>
-    <t>D_715581797_1_1.string</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.D_652923023_1_1</t>
-  </si>
-  <si>
-    <t>D_652923023_1_1</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.D_701387353_1_1</t>
-  </si>
-  <si>
-    <t>D_701387353_1_1</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.__key__</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.__key__.app</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.__key__.path</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.__key__.name</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.entity.__key__.id</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1.provided</t>
+    <t>D_959877599.D_700620868</t>
+  </si>
+  <si>
+    <t>D_700620868</t>
+  </si>
+  <si>
+    <t>D_959877599.D_908044428</t>
+  </si>
+  <si>
+    <t>D_908044428</t>
+  </si>
+  <si>
+    <t>D_959877599.__key__</t>
+  </si>
+  <si>
+    <t>D_959877599.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_959877599.__key__.app</t>
+  </si>
+  <si>
+    <t>D_959877599.__key__.path</t>
+  </si>
+  <si>
+    <t>D_959877599.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_959877599.__key__.name</t>
+  </si>
+  <si>
+    <t>D_959877599.__key__.id</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.D_652923023_5_5</t>
+  </si>
+  <si>
+    <t>D_652923023_5_5</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.D_701387353_5_5</t>
+  </si>
+  <si>
+    <t>D_701387353_5_5</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.D_652923023_5</t>
+  </si>
+  <si>
+    <t>D_652923023_5</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.D_701387353_5</t>
+  </si>
+  <si>
+    <t>D_701387353_5</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.__key__</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.__key__.app</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.__key__.path</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.__key__.name</t>
+  </si>
+  <si>
+    <t>D_715581797_5_5.__key__.id</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.D_705336878_3_3</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.__key__</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.__key__.app</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.__key__.path</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.__key__.name</t>
+  </si>
+  <si>
+    <t>D_705336878_3_3.__key__.id</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.D_366972678_3_3u25_20required</t>
+  </si>
+  <si>
+    <t>D_366972678_3_3%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.D_173502329_3_3u25_20required</t>
+  </si>
+  <si>
+    <t>D_173502329_3_3%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.D_173502329_3u25_20required</t>
+  </si>
+  <si>
+    <t>D_173502329_3%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.D_366972678_3u25_20required</t>
+  </si>
+  <si>
+    <t>D_366972678_3%20required</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.D_366972678_3_3</t>
+  </si>
+  <si>
+    <t>D_366972678_3_3</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.D_173502329_3_3</t>
+  </si>
+  <si>
+    <t>D_173502329_3_3</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.__key__</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.__key__.app</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.__key__.path</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.__key__.name</t>
+  </si>
+  <si>
+    <t>D_980800222_3_3.__key__.id</t>
   </si>
   <si>
     <t>D_220055064_6_6.D_220055064_6_6</t>
   </si>
   <si>
+    <t>D_220055064_6_6.D_395747093_6_6</t>
+  </si>
+  <si>
+    <t>D_395747093_6_6</t>
+  </si>
+  <si>
     <t>D_220055064_6_6.__key__</t>
   </si>
   <si>
@@ -1125,381 +1809,6 @@
   </si>
   <si>
     <t>D_220055064_6_6.__key__.id</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.D_220055064_8_8</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.id</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.D_705336878_2_2</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.app</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.path</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.name</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.id</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.string</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.D_652923023_2_2</t>
-  </si>
-  <si>
-    <t>D_652923023_2_2</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.D_701387353_2_2</t>
-  </si>
-  <si>
-    <t>D_701387353_2_2</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.__key__</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.__key__.app</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.__key__.path</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.__key__.name</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.entity.__key__.id</t>
-  </si>
-  <si>
-    <t>D_715581797_2_2.provided</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.D_220055064_7_7</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.id</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.D_220055064_9_9</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.D_395747093_9_9</t>
-  </si>
-  <si>
-    <t>D_395747093_9_9</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.id</t>
-  </si>
-  <si>
-    <t>D_813989715.D_874223830</t>
-  </si>
-  <si>
-    <t>D_874223830</t>
-  </si>
-  <si>
-    <t>D_813989715.D_580629349</t>
-  </si>
-  <si>
-    <t>D_580629349</t>
-  </si>
-  <si>
-    <t>D_813989715.D_151327643</t>
-  </si>
-  <si>
-    <t>D_151327643</t>
-  </si>
-  <si>
-    <t>D_813989715.D_874168085</t>
-  </si>
-  <si>
-    <t>D_874168085</t>
-  </si>
-  <si>
-    <t>D_813989715.D_283112988</t>
-  </si>
-  <si>
-    <t>D_283112988</t>
-  </si>
-  <si>
-    <t>D_813989715.D_440872808</t>
-  </si>
-  <si>
-    <t>D_440872808</t>
-  </si>
-  <si>
-    <t>D_813989715.__key__</t>
-  </si>
-  <si>
-    <t>D_813989715.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_813989715.__key__.app</t>
-  </si>
-  <si>
-    <t>D_813989715.__key__.path</t>
-  </si>
-  <si>
-    <t>D_813989715.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_813989715.__key__.name</t>
-  </si>
-  <si>
-    <t>D_813989715.__key__.id</t>
-  </si>
-  <si>
-    <t>D_857165713.D_638380747</t>
-  </si>
-  <si>
-    <t>D_638380747</t>
-  </si>
-  <si>
-    <t>D_857165713.D_219358831</t>
-  </si>
-  <si>
-    <t>D_219358831</t>
-  </si>
-  <si>
-    <t>D_857165713.D_847529903</t>
-  </si>
-  <si>
-    <t>D_847529903</t>
-  </si>
-  <si>
-    <t>D_857165713.D_636367178</t>
-  </si>
-  <si>
-    <t>D_636367178</t>
-  </si>
-  <si>
-    <t>D_857165713.D_243443780</t>
-  </si>
-  <si>
-    <t>D_243443780</t>
-  </si>
-  <si>
-    <t>D_857165713.D_187399900</t>
-  </si>
-  <si>
-    <t>D_187399900</t>
-  </si>
-  <si>
-    <t>D_857165713.D_357462273</t>
-  </si>
-  <si>
-    <t>D_357462273</t>
-  </si>
-  <si>
-    <t>D_857165713.__key__</t>
-  </si>
-  <si>
-    <t>D_857165713.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_857165713.__key__.app</t>
-  </si>
-  <si>
-    <t>D_857165713.__key__.path</t>
-  </si>
-  <si>
-    <t>D_857165713.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_857165713.__key__.name</t>
-  </si>
-  <si>
-    <t>D_857165713.__key__.id</t>
-  </si>
-  <si>
-    <t>D_424718457.D_424718457</t>
-  </si>
-  <si>
-    <t>D_424718457.__key__</t>
-  </si>
-  <si>
-    <t>D_424718457.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_424718457.__key__.app</t>
-  </si>
-  <si>
-    <t>D_424718457.__key__.path</t>
-  </si>
-  <si>
-    <t>D_424718457.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_424718457.__key__.name</t>
-  </si>
-  <si>
-    <t>D_424718457.__key__.id</t>
-  </si>
-  <si>
-    <t>D_749956170.D_527872064</t>
-  </si>
-  <si>
-    <t>D_527872064</t>
-  </si>
-  <si>
-    <t>D_749956170.D_431203595</t>
-  </si>
-  <si>
-    <t>D_431203595</t>
-  </si>
-  <si>
-    <t>D_749956170.D_304155106</t>
-  </si>
-  <si>
-    <t>D_304155106</t>
-  </si>
-  <si>
-    <t>D_749956170.D_143206081</t>
-  </si>
-  <si>
-    <t>D_143206081</t>
-  </si>
-  <si>
-    <t>D_749956170.D_516899143</t>
-  </si>
-  <si>
-    <t>D_516899143</t>
-  </si>
-  <si>
-    <t>D_749956170.D_223008071</t>
-  </si>
-  <si>
-    <t>D_223008071</t>
-  </si>
-  <si>
-    <t>D_749956170.D_463689026</t>
-  </si>
-  <si>
-    <t>D_463689026</t>
-  </si>
-  <si>
-    <t>D_749956170.D_246857412</t>
-  </si>
-  <si>
-    <t>D_246857412</t>
-  </si>
-  <si>
-    <t>D_749956170.D_144819886</t>
-  </si>
-  <si>
-    <t>D_144819886</t>
-  </si>
-  <si>
-    <t>D_749956170.D_691752394</t>
-  </si>
-  <si>
-    <t>D_691752394</t>
-  </si>
-  <si>
-    <t>D_749956170.D_830581863</t>
-  </si>
-  <si>
-    <t>D_830581863</t>
-  </si>
-  <si>
-    <t>D_749956170.__key__</t>
-  </si>
-  <si>
-    <t>D_749956170.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_749956170.__key__.app</t>
-  </si>
-  <si>
-    <t>D_749956170.__key__.path</t>
-  </si>
-  <si>
-    <t>D_749956170.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_749956170.__key__.name</t>
-  </si>
-  <si>
-    <t>D_749956170.__key__.id</t>
   </si>
   <si>
     <t>__key__.namespace</t>
@@ -1524,7 +1833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1542,6 +1851,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1564,10 +1879,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1881,19 +2197,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AD6092-EB1A-324E-8372-AFC5E63B2EF6}">
-  <dimension ref="A1:D411"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA40E9-621D-D24D-97C3-161E4DB0FAA7}">
+  <dimension ref="A1:D471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D411"/>
+      <selection sqref="A1:D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1932,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1940,16 +2254,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1957,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1968,7 +2282,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1977,21 +2291,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2002,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -2030,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -2038,21 +2352,21 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -2061,26 +2375,26 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -2089,12 +2403,12 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -2103,26 +2417,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -2131,35 +2445,35 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2167,7 +2481,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -2198,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -2254,7 +2568,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
@@ -2296,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>36</v>
@@ -2338,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
@@ -2366,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -2422,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -2433,7 +2747,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -2450,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>47</v>
@@ -2478,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>49</v>
@@ -2506,7 +2820,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>51</v>
@@ -2520,7 +2834,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>52</v>
@@ -2534,7 +2848,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>53</v>
@@ -2548,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>54</v>
@@ -2562,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>55</v>
@@ -2573,7 +2887,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
@@ -2590,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>57</v>
@@ -2601,7 +2915,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>6</v>
@@ -2618,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>59</v>
@@ -2632,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>60</v>
@@ -2646,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>61</v>
@@ -2674,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>63</v>
@@ -2702,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>65</v>
@@ -2716,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>66</v>
@@ -2783,7 +3097,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>6</v>
@@ -2867,7 +3181,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>6</v>
@@ -2926,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>81</v>
@@ -2993,7 +3307,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
@@ -3049,7 +3363,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>6</v>
@@ -3108,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>94</v>
@@ -3164,7 +3478,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>98</v>
@@ -3178,7 +3492,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>99</v>
@@ -3189,10 +3503,10 @@
         <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>100</v>
@@ -3234,7 +3548,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>103</v>
@@ -3262,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>105</v>
@@ -3304,7 +3618,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>108</v>
@@ -3332,7 +3646,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>110</v>
@@ -3416,7 +3730,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>116</v>
@@ -3486,7 +3800,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>121</v>
@@ -3500,7 +3814,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>122</v>
@@ -3514,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>123</v>
@@ -3528,7 +3842,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>124</v>
@@ -3542,7 +3856,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>125</v>
@@ -3556,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>126</v>
@@ -3612,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>130</v>
@@ -3626,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>131</v>
@@ -3640,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>132</v>
@@ -3654,7 +3968,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>133</v>
@@ -3668,21 +3982,25 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
@@ -3692,27 +4010,29 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>5</v>
@@ -3721,12 +4041,12 @@
         <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>5</v>
@@ -3735,24 +4055,26 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>5</v>
@@ -3760,11 +4082,13 @@
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>5</v>
@@ -3772,11 +4096,13 @@
       <c r="C135" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>5</v>
@@ -3784,11 +4110,13 @@
       <c r="C136" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>5</v>
@@ -3796,11 +4124,13 @@
       <c r="C137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>5</v>
@@ -3808,65 +4138,63 @@
       <c r="C138" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>5</v>
@@ -3875,36 +4203,38 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>5</v>
@@ -3916,7 +4246,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>5</v>
@@ -3928,7 +4258,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>5</v>
@@ -3940,7 +4270,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>5</v>
@@ -3952,45 +4282,45 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>5</v>
@@ -3998,23 +4328,25 @@
       <c r="C153" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>5</v>
@@ -4026,7 +4358,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>5</v>
@@ -4038,7 +4370,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>5</v>
@@ -4050,19 +4382,19 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>5</v>
@@ -4070,27 +4402,23 @@
       <c r="C159" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>5</v>
@@ -4099,12 +4427,12 @@
         <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>5</v>
@@ -4113,24 +4441,24 @@
         <v>6</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>5</v>
@@ -4142,7 +4470,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>5</v>
@@ -4154,7 +4482,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>5</v>
@@ -4166,7 +4494,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>5</v>
@@ -4178,7 +4506,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>5</v>
@@ -4190,19 +4518,19 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>5</v>
@@ -4211,12 +4539,12 @@
         <v>6</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>5</v>
@@ -4225,26 +4553,24 @@
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>5</v>
@@ -4252,13 +4578,11 @@
       <c r="C173" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>5</v>
@@ -4266,13 +4590,11 @@
       <c r="C174" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>5</v>
@@ -4280,25 +4602,23 @@
       <c r="C175" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>5</v>
@@ -4310,19 +4630,19 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>5</v>
@@ -4330,11 +4650,13 @@
       <c r="C179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>5</v>
@@ -4342,11 +4664,13 @@
       <c r="C180" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>5</v>
@@ -4354,37 +4678,39 @@
       <c r="C181" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>5</v>
@@ -4392,13 +4718,11 @@
       <c r="C184" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>5</v>
@@ -4406,13 +4730,11 @@
       <c r="C185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>5</v>
@@ -4420,13 +4742,11 @@
       <c r="C186" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>5</v>
@@ -4434,37 +4754,35 @@
       <c r="C187" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>5</v>
@@ -4472,11 +4790,13 @@
       <c r="C190" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D190" s="2"/>
+      <c r="D190" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>5</v>
@@ -4484,11 +4804,13 @@
       <c r="C191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D191" s="2"/>
+      <c r="D191" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>5</v>
@@ -4496,11 +4818,13 @@
       <c r="C192" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D192" s="2"/>
+      <c r="D192" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>5</v>
@@ -4508,23 +4832,25 @@
       <c r="C193" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D193" s="2"/>
+      <c r="D193" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>5</v>
@@ -4532,13 +4858,11 @@
       <c r="C195" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>5</v>
@@ -4546,13 +4870,11 @@
       <c r="C196" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>5</v>
@@ -4560,13 +4882,11 @@
       <c r="C197" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>5</v>
@@ -4574,13 +4894,11 @@
       <c r="C198" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>5</v>
@@ -4588,25 +4906,23 @@
       <c r="C199" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>5</v>
@@ -4614,11 +4930,13 @@
       <c r="C201" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D201" s="2"/>
+      <c r="D201" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>5</v>
@@ -4626,11 +4944,13 @@
       <c r="C202" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D202" s="2"/>
+      <c r="D202" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>5</v>
@@ -4638,11 +4958,13 @@
       <c r="C203" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D203" s="2"/>
+      <c r="D203" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>5</v>
@@ -4650,11 +4972,13 @@
       <c r="C204" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="2"/>
+      <c r="D204" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>5</v>
@@ -4662,23 +4986,27 @@
       <c r="C205" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="2"/>
+      <c r="D205" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>5</v>
@@ -4687,12 +5015,12 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>5</v>
@@ -4701,24 +5029,24 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>5</v>
@@ -4730,7 +5058,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>5</v>
@@ -4742,7 +5070,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>5</v>
@@ -4754,7 +5082,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>5</v>
@@ -4766,7 +5094,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>5</v>
@@ -4778,19 +5106,19 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>5</v>
@@ -4799,12 +5127,12 @@
         <v>6</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>5</v>
@@ -4813,26 +5141,24 @@
         <v>6</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>257</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>5</v>
@@ -4840,13 +5166,11 @@
       <c r="C219" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>5</v>
@@ -4854,13 +5178,11 @@
       <c r="C220" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>5</v>
@@ -4868,13 +5190,11 @@
       <c r="C221" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>5</v>
@@ -4882,13 +5202,11 @@
       <c r="C222" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>5</v>
@@ -4896,27 +5214,23 @@
       <c r="C223" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="D223" s="2"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>5</v>
@@ -4925,12 +5239,12 @@
         <v>6</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>5</v>
@@ -4939,12 +5253,12 @@
         <v>6</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>5</v>
@@ -4953,26 +5267,24 @@
         <v>6</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D228" s="2"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>5</v>
@@ -4980,13 +5292,11 @@
       <c r="C229" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="D229" s="2"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>5</v>
@@ -4994,13 +5304,11 @@
       <c r="C230" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="D230" s="2"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>5</v>
@@ -5008,25 +5316,23 @@
       <c r="C231" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="D231" s="2"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D232" s="2"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>5</v>
@@ -5038,19 +5344,19 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D234" s="2"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>5</v>
@@ -5058,11 +5364,13 @@
       <c r="C235" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D235" s="2"/>
+      <c r="D235" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>5</v>
@@ -5070,11 +5378,13 @@
       <c r="C236" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D236" s="2"/>
+      <c r="D236" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>5</v>
@@ -5082,23 +5392,27 @@
       <c r="C237" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D237" s="2"/>
+      <c r="D237" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>5</v>
@@ -5107,24 +5421,26 @@
         <v>6</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D240" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>5</v>
@@ -5132,11 +5448,13 @@
       <c r="C241" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="2"/>
+      <c r="D241" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>5</v>
@@ -5144,11 +5462,13 @@
       <c r="C242" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D242" s="2"/>
+      <c r="D242" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>5</v>
@@ -5156,11 +5476,13 @@
       <c r="C243" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="2"/>
+      <c r="D243" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>5</v>
@@ -5168,11 +5490,13 @@
       <c r="C244" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D244" s="2"/>
+      <c r="D244" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>5</v>
@@ -5180,23 +5504,27 @@
       <c r="C245" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D245" s="2"/>
+      <c r="D245" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>5</v>
@@ -5205,24 +5533,26 @@
         <v>6</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>61</v>
+        <v>293</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D248" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>5</v>
@@ -5230,11 +5560,13 @@
       <c r="C249" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D249" s="2"/>
+      <c r="D249" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>5</v>
@@ -5242,23 +5574,25 @@
       <c r="C250" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D250" s="2"/>
+      <c r="D250" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>5</v>
@@ -5270,7 +5604,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>5</v>
@@ -5282,19 +5616,19 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>5</v>
@@ -5302,37 +5636,35 @@
       <c r="C255" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D256" s="2"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>5</v>
@@ -5340,11 +5672,13 @@
       <c r="C258" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D258" s="2"/>
+      <c r="D258" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>5</v>
@@ -5352,19 +5686,23 @@
       <c r="C259" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D259" s="2"/>
+      <c r="D259" s="2" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
@@ -5376,23 +5714,27 @@
       <c r="C261" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D261" s="2"/>
+      <c r="D261" s="2" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>5</v>
@@ -5401,24 +5743,24 @@
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>65</v>
+        <v>318</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>5</v>
@@ -5430,7 +5772,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>5</v>
@@ -5442,7 +5784,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>5</v>
@@ -5454,7 +5796,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>5</v>
@@ -5466,7 +5808,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>5</v>
@@ -5478,19 +5820,19 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D270" s="2"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>5</v>
@@ -5499,24 +5841,26 @@
         <v>6</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>99</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D272" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>5</v>
@@ -5524,11 +5868,13 @@
       <c r="C273" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D273" s="2"/>
+      <c r="D273" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>5</v>
@@ -5536,23 +5882,25 @@
       <c r="C274" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D274" s="2"/>
+      <c r="D274" s="2" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D275" s="2"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>5</v>
@@ -5564,7 +5912,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>5</v>
@@ -5576,19 +5924,19 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>5</v>
@@ -5596,13 +5944,11 @@
       <c r="C279" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="D279" s="2"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>5</v>
@@ -5610,25 +5956,23 @@
       <c r="C280" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>5</v>
@@ -5636,11 +5980,13 @@
       <c r="C282" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D282" s="2"/>
+      <c r="D282" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>5</v>
@@ -5648,11 +5994,13 @@
       <c r="C283" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D283" s="2"/>
+      <c r="D283" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>5</v>
@@ -5660,11 +6008,13 @@
       <c r="C284" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D284" s="2"/>
+      <c r="D284" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>5</v>
@@ -5672,11 +6022,13 @@
       <c r="C285" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D285" s="2"/>
+      <c r="D285" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>5</v>
@@ -5684,23 +6036,25 @@
       <c r="C286" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D286" s="2"/>
+      <c r="D286" s="2" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>5</v>
@@ -5712,19 +6066,19 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D289" s="2"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>5</v>
@@ -5732,13 +6086,11 @@
       <c r="C290" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>5</v>
@@ -5746,37 +6098,35 @@
       <c r="C291" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="D291" s="2"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D292" s="2"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D293" s="2"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>5</v>
@@ -5784,11 +6134,13 @@
       <c r="C294" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D294" s="2"/>
+      <c r="D294" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>5</v>
@@ -5796,11 +6148,13 @@
       <c r="C295" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D295" s="2"/>
+      <c r="D295" s="2" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>5</v>
@@ -5808,11 +6162,13 @@
       <c r="C296" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D296" s="2"/>
+      <c r="D296" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>5</v>
@@ -5820,35 +6176,39 @@
       <c r="C297" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D297" s="2"/>
+      <c r="D297" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D299" s="2"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>5</v>
@@ -5856,25 +6216,23 @@
       <c r="C300" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D300" s="2"/>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D301" s="2"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>5</v>
@@ -5886,7 +6244,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>5</v>
@@ -5898,7 +6256,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>5</v>
@@ -5910,19 +6268,19 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>5</v>
@@ -5930,23 +6288,27 @@
       <c r="C306" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D306" s="2"/>
+      <c r="D306" s="2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>5</v>
@@ -5955,24 +6317,26 @@
         <v>6</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>110</v>
+        <v>380</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D309" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>5</v>
@@ -5980,11 +6344,13 @@
       <c r="C310" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D310" s="2"/>
+      <c r="D310" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>5</v>
@@ -5992,23 +6358,25 @@
       <c r="C311" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D311" s="2"/>
+      <c r="D311" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>5</v>
@@ -6020,7 +6388,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>5</v>
@@ -6032,57 +6400,55 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>5</v>
@@ -6090,11 +6456,13 @@
       <c r="C319" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D319" s="2"/>
+      <c r="D319" s="2" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>5</v>
@@ -6102,11 +6470,13 @@
       <c r="C320" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D320" s="2"/>
+      <c r="D320" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>5</v>
@@ -6114,11 +6484,13 @@
       <c r="C321" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D321" s="2"/>
+      <c r="D321" s="2" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>5</v>
@@ -6126,23 +6498,27 @@
       <c r="C322" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D322" s="2"/>
+      <c r="D322" s="2" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D323" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>5</v>
@@ -6150,37 +6526,39 @@
       <c r="C324" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D324" s="2"/>
+      <c r="D324" s="2" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D325" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>382</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D326" s="2"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>5</v>
@@ -6188,25 +6566,23 @@
       <c r="C327" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D327" s="2" t="s">
-        <v>384</v>
-      </c>
+      <c r="D327" s="2"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D328" s="2"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>5</v>
@@ -6218,7 +6594,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>5</v>
@@ -6230,7 +6606,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>5</v>
@@ -6242,19 +6618,19 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D332" s="2"/>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>5</v>
@@ -6262,35 +6638,39 @@
       <c r="C333" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D333" s="2"/>
+      <c r="D333" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D334" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D335" s="2"/>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>5</v>
@@ -6298,25 +6678,23 @@
       <c r="C336" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D336" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="D336" s="2"/>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D337" s="2"/>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>5</v>
@@ -6328,7 +6706,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>5</v>
@@ -6340,7 +6718,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>5</v>
@@ -6352,19 +6730,19 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D341" s="2"/>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>5</v>
@@ -6372,23 +6750,27 @@
       <c r="C342" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D342" s="2"/>
+      <c r="D342" s="2" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D343" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>5</v>
@@ -6397,12 +6779,12 @@
         <v>6</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>123</v>
+        <v>430</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>5</v>
@@ -6411,24 +6793,26 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D346" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>5</v>
@@ -6436,11 +6820,13 @@
       <c r="C347" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D347" s="2"/>
+      <c r="D347" s="2" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>5</v>
@@ -6448,11 +6834,13 @@
       <c r="C348" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D348" s="2"/>
+      <c r="D348" s="2" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>5</v>
@@ -6460,23 +6848,25 @@
       <c r="C349" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D349" s="2"/>
+      <c r="D349" s="2" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D350" s="2"/>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>5</v>
@@ -6488,19 +6878,19 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D352" s="2"/>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>5</v>
@@ -6508,13 +6898,11 @@
       <c r="C353" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D353" s="2" t="s">
-        <v>412</v>
-      </c>
+      <c r="D353" s="2"/>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>5</v>
@@ -6522,13 +6910,11 @@
       <c r="C354" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D354" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="D354" s="2"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>5</v>
@@ -6536,41 +6922,37 @@
       <c r="C355" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D355" s="2" t="s">
-        <v>416</v>
-      </c>
+      <c r="D355" s="2"/>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D356" s="2"/>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>420</v>
+        <v>81</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>5</v>
@@ -6579,36 +6961,38 @@
         <v>6</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D359" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2"/>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>5</v>
@@ -6620,7 +7004,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>5</v>
@@ -6632,7 +7016,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>5</v>
@@ -6644,7 +7028,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>5</v>
@@ -6656,33 +7040,31 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D365" s="2"/>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>431</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D366" s="2"/>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>5</v>
@@ -6691,12 +7073,12 @@
         <v>6</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>5</v>
@@ -6705,12 +7087,12 @@
         <v>6</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>5</v>
@@ -6719,12 +7101,12 @@
         <v>6</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>5</v>
@@ -6733,12 +7115,12 @@
         <v>6</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>5</v>
@@ -6747,12 +7129,12 @@
         <v>6</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>5</v>
@@ -6761,24 +7143,26 @@
         <v>6</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D373" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>5</v>
@@ -6786,11 +7170,13 @@
       <c r="C374" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D374" s="2"/>
+      <c r="D374" s="2" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>5</v>
@@ -6798,11 +7184,13 @@
       <c r="C375" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D375" s="2"/>
+      <c r="D375" s="2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>5</v>
@@ -6810,11 +7198,13 @@
       <c r="C376" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D376" s="2"/>
+      <c r="D376" s="2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>5</v>
@@ -6822,11 +7212,13 @@
       <c r="C377" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D377" s="2"/>
+      <c r="D377" s="2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>5</v>
@@ -6834,49 +7226,51 @@
       <c r="C378" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D378" s="2"/>
+      <c r="D378" s="2" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D379" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D380" s="2"/>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>5</v>
@@ -6888,7 +7282,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>5</v>
@@ -6900,7 +7294,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>5</v>
@@ -6912,7 +7306,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>5</v>
@@ -6924,31 +7318,33 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D387" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>5</v>
@@ -6957,26 +7353,24 @@
         <v>6</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>462</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D389" s="2"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>5</v>
@@ -6984,13 +7378,11 @@
       <c r="C390" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D390" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="D390" s="2"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>5</v>
@@ -6998,13 +7390,11 @@
       <c r="C391" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D391" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="D391" s="2"/>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>5</v>
@@ -7012,13 +7402,11 @@
       <c r="C392" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D392" s="2" t="s">
-        <v>468</v>
-      </c>
+      <c r="D392" s="2"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>5</v>
@@ -7026,13 +7414,11 @@
       <c r="C393" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D393" s="2" t="s">
-        <v>470</v>
-      </c>
+      <c r="D393" s="2"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>5</v>
@@ -7040,27 +7426,23 @@
       <c r="C394" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D394" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="D394" s="2"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>474</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D395" s="2"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>5</v>
@@ -7069,12 +7451,12 @@
         <v>6</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>5</v>
@@ -7083,12 +7465,12 @@
         <v>6</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>5</v>
@@ -7097,36 +7479,38 @@
         <v>6</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D399" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D400" s="2"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>5</v>
@@ -7138,7 +7522,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>5</v>
@@ -7150,7 +7534,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>5</v>
@@ -7162,7 +7546,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>5</v>
@@ -7174,31 +7558,31 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D405" s="2"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D406" s="2"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>5</v>
@@ -7206,11 +7590,13 @@
       <c r="C407" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D407" s="2"/>
+      <c r="D407" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>5</v>
@@ -7218,23 +7604,25 @@
       <c r="C408" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D408" s="2"/>
+      <c r="D408" s="2" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>5</v>
@@ -7246,13 +7634,763 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" s="2"/>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D450" s="2"/>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" s="2"/>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" s="2"/>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D456" s="2"/>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D459" s="2"/>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460" s="2"/>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" s="2"/>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" s="2"/>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" s="2"/>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" s="2"/>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D465" s="2"/>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" s="2"/>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" s="2"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" s="2"/>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" s="2"/>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
